--- a/other/educationPsychology/supplementary/quizzes/quizzes_student.xlsx
+++ b/other/educationPsychology/supplementary/quizzes/quizzes_student.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D51364-9F75-411C-8838-04AE69E00C28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067A2189-7E94-4F61-AF66-958C97EC0679}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="4425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>positive</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>題目</t>
   </si>
   <si>
@@ -37,21 +34,9 @@
     <t>正面負面</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>我能夠改進自己的缺點</t>
   </si>
   <si>
@@ -65,15 +50,6 @@
   </si>
   <si>
     <t>我會和同學互相分享事情或東西</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
   <si>
     <t>我覺得任何困難都能解決</t>
@@ -487,19 +463,43 @@
     <t>我會盡力完成被分配到的工作</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
+    <t>主觀幸福</t>
+  </si>
+  <si>
+    <t>生活壓力</t>
+  </si>
+  <si>
+    <t>自我反省</t>
+  </si>
+  <si>
+    <t>自我接納</t>
+  </si>
+  <si>
+    <t>自我情緒覺察</t>
+  </si>
+  <si>
+    <t>壓力抒發</t>
+  </si>
+  <si>
+    <t>自我激勵</t>
+  </si>
+  <si>
+    <t>參照經驗</t>
+  </si>
+  <si>
+    <t>情緒管理</t>
+  </si>
+  <si>
+    <t>同理他人</t>
+  </si>
+  <si>
+    <t>同儕相處</t>
+  </si>
+  <si>
+    <t>同儕合作</t>
+  </si>
+  <si>
+    <t>衝突處理</t>
   </si>
 </sst>
 </file>
@@ -599,15 +599,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C76" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C76" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="A1:C76" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition ref="C1:C25"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="題目" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="正面負面" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="向度" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="題目" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="正面負面" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="向度" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -878,849 +878,850 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection sqref="A1:C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
+      <c r="C12" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
+      <c r="C15" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
+      <c r="C16" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
+      <c r="C17" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>5</v>
+      <c r="C18" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>5</v>
+      <c r="C19" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>9</v>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>9</v>
+      <c r="C22" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>9</v>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5">
       <c r="A24" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>9</v>
+      <c r="C24" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>9</v>
+      <c r="C25" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>15</v>
+      <c r="C26" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5">
       <c r="A27" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>15</v>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>15</v>
+      <c r="C28" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5">
       <c r="A29" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>16</v>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5">
       <c r="A30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5">
       <c r="A31" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>16</v>
+      <c r="C31" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5">
       <c r="A32" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>16</v>
+      <c r="C32" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>16</v>
+      <c r="C33" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>17</v>
+      <c r="C34" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5">
       <c r="A35" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>17</v>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5">
       <c r="A36" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>17</v>
+      <c r="C36" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5">
       <c r="A38" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5">
       <c r="A40" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5">
       <c r="A41" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5">
       <c r="A42" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5">
       <c r="A43" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5">
       <c r="A44" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5">
       <c r="A46" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.5">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.5">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.5">
       <c r="A51" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5">
       <c r="A52" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.5">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.5">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5">
       <c r="A59" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5">
       <c r="A60" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5">
       <c r="A63" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.5">
       <c r="A64" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.5">
       <c r="A65" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.5">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5">
       <c r="A67" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16.5">
       <c r="A68" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16.5">
       <c r="A69" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.5">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.5">
       <c r="A71" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.5">
       <c r="A73" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16.5">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16.5">
       <c r="A75" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16.5">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="1" t="s">
         <v>92</v>
       </c>
     </row>
